--- a/undernourish_millions_fao.xlsx
+++ b/undernourish_millions_fao.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/areena.arora/Downloads/data-studio/insects_in_diet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D64E8F20-F86C-2249-92FA-70011859D1E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23EF688F-3C47-354A-9DA4-F0124814C39D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="continet-wise" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$C$5681</definedName>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8840" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8927" uniqueCount="300">
   <si>
     <t>World</t>
   </si>
@@ -1257,11 +1258,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C5681"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="A1180" workbookViewId="0">
+      <selection activeCell="A1186" sqref="A1186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" customWidth="1"/>
+    <col min="3" max="3" width="26.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -63761,22 +63767,957 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F81274F8-C954-914F-B44E-FF31126973DF}">
+  <dimension ref="A1:C85"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>2000</v>
+      </c>
+      <c r="C2" s="1">
+        <v>800.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>2001</v>
+      </c>
+      <c r="C3" s="1">
+        <v>817.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>2002</v>
+      </c>
+      <c r="C4" s="1">
+        <v>839.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>2003</v>
+      </c>
+      <c r="C5" s="1">
+        <v>834.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>2004</v>
+      </c>
+      <c r="C6" s="1">
+        <v>836.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>2005</v>
+      </c>
+      <c r="C7" s="1">
+        <v>810.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>2006</v>
+      </c>
+      <c r="C8" s="1">
+        <v>764.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>2007</v>
+      </c>
+      <c r="C9" s="1">
+        <v>711.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>2008</v>
+      </c>
+      <c r="C10" s="1">
+        <v>685.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>2009</v>
+      </c>
+      <c r="C11" s="1">
+        <v>684.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>2010</v>
+      </c>
+      <c r="C12" s="1">
+        <v>636.79999999999995</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>2011</v>
+      </c>
+      <c r="C13" s="1">
+        <v>635.79999999999995</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>2012</v>
+      </c>
+      <c r="C14" s="1">
+        <v>637.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>2013</v>
+      </c>
+      <c r="C15" s="1">
+        <v>631.20000000000005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>2014</v>
+      </c>
+      <c r="C16" s="1">
+        <v>606.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>2015</v>
+      </c>
+      <c r="C17" s="1">
+        <v>615.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>2016</v>
+      </c>
+      <c r="C18" s="1">
+        <v>619.6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>2017</v>
+      </c>
+      <c r="C19" s="1">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>2018</v>
+      </c>
+      <c r="C20" s="1">
+        <v>633.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>2019</v>
+      </c>
+      <c r="C21" s="1">
+        <v>650.29999999999995</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>2020</v>
+      </c>
+      <c r="C22" s="1">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>2000</v>
+      </c>
+      <c r="C23" s="1">
+        <v>200.9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>2001</v>
+      </c>
+      <c r="C24" s="1">
+        <v>198.6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>2002</v>
+      </c>
+      <c r="C25" s="1">
+        <v>199.9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>2003</v>
+      </c>
+      <c r="C26" s="1">
+        <v>204.3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>2004</v>
+      </c>
+      <c r="C27" s="1">
+        <v>205.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>2005</v>
+      </c>
+      <c r="C28" s="1">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>2006</v>
+      </c>
+      <c r="C29" s="1">
+        <v>194.6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30">
+        <v>2007</v>
+      </c>
+      <c r="C30" s="1">
+        <v>198.3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>2008</v>
+      </c>
+      <c r="C31" s="1">
+        <v>198.3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <v>2009</v>
+      </c>
+      <c r="C32" s="1">
+        <v>198.8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <v>2010</v>
+      </c>
+      <c r="C33" s="1">
+        <v>187.4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34">
+        <v>2011</v>
+      </c>
+      <c r="C34" s="1">
+        <v>198.1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35">
+        <v>2012</v>
+      </c>
+      <c r="C35" s="1">
+        <v>199.1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36">
+        <v>2013</v>
+      </c>
+      <c r="C36" s="1">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37">
+        <v>2014</v>
+      </c>
+      <c r="C37" s="1">
+        <v>192.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38">
+        <v>2015</v>
+      </c>
+      <c r="C38" s="1">
+        <v>199.7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39">
+        <v>2016</v>
+      </c>
+      <c r="C39" s="1">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40">
+        <v>2017</v>
+      </c>
+      <c r="C40" s="1">
+        <v>212.3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41">
+        <v>2018</v>
+      </c>
+      <c r="C41" s="1">
+        <v>227.1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42">
+        <v>2019</v>
+      </c>
+      <c r="C42" s="1">
+        <v>235.3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43">
+        <v>2020</v>
+      </c>
+      <c r="C43" s="1">
+        <v>281.60000000000002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44">
+        <v>2000</v>
+      </c>
+      <c r="C44" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45">
+        <v>2001</v>
+      </c>
+      <c r="C45" s="1">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46">
+        <v>2002</v>
+      </c>
+      <c r="C46" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47">
+        <v>2003</v>
+      </c>
+      <c r="C47" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48">
+        <v>2004</v>
+      </c>
+      <c r="C48" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49">
+        <v>2005</v>
+      </c>
+      <c r="C49" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50">
+        <v>2006</v>
+      </c>
+      <c r="C50" s="1">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>5</v>
+      </c>
+      <c r="B51">
+        <v>2007</v>
+      </c>
+      <c r="C51" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52">
+        <v>2008</v>
+      </c>
+      <c r="C52" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>5</v>
+      </c>
+      <c r="B53">
+        <v>2009</v>
+      </c>
+      <c r="C53" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>5</v>
+      </c>
+      <c r="B54">
+        <v>2010</v>
+      </c>
+      <c r="C54" s="1">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>5</v>
+      </c>
+      <c r="B55">
+        <v>2011</v>
+      </c>
+      <c r="C55" s="1">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>5</v>
+      </c>
+      <c r="B56">
+        <v>2012</v>
+      </c>
+      <c r="C56" s="1">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>5</v>
+      </c>
+      <c r="B57">
+        <v>2013</v>
+      </c>
+      <c r="C57" s="1">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B58">
+        <v>2014</v>
+      </c>
+      <c r="C58" s="1">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>5</v>
+      </c>
+      <c r="B59">
+        <v>2015</v>
+      </c>
+      <c r="C59" s="1">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>5</v>
+      </c>
+      <c r="B60">
+        <v>2016</v>
+      </c>
+      <c r="C60" s="1">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>5</v>
+      </c>
+      <c r="B61">
+        <v>2017</v>
+      </c>
+      <c r="C61" s="1">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>5</v>
+      </c>
+      <c r="B62">
+        <v>2018</v>
+      </c>
+      <c r="C62" s="1">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>5</v>
+      </c>
+      <c r="B63">
+        <v>2019</v>
+      </c>
+      <c r="C63" s="1">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>5</v>
+      </c>
+      <c r="B64">
+        <v>2020</v>
+      </c>
+      <c r="C64" s="1">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>16</v>
+      </c>
+      <c r="B65">
+        <v>2000</v>
+      </c>
+      <c r="C65" s="1">
+        <v>56.4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>16</v>
+      </c>
+      <c r="B66">
+        <v>2001</v>
+      </c>
+      <c r="C66" s="1">
+        <v>55.7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>16</v>
+      </c>
+      <c r="B67">
+        <v>2002</v>
+      </c>
+      <c r="C67" s="1">
+        <v>58.3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>16</v>
+      </c>
+      <c r="B68">
+        <v>2003</v>
+      </c>
+      <c r="C68" s="1">
+        <v>54.2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>16</v>
+      </c>
+      <c r="B69">
+        <v>2004</v>
+      </c>
+      <c r="C69" s="1">
+        <v>54.2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>16</v>
+      </c>
+      <c r="B70">
+        <v>2005</v>
+      </c>
+      <c r="C70" s="1">
+        <v>51.8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>16</v>
+      </c>
+      <c r="B71">
+        <v>2006</v>
+      </c>
+      <c r="C71" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>16</v>
+      </c>
+      <c r="B72">
+        <v>2007</v>
+      </c>
+      <c r="C72" s="1">
+        <v>47.4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>16</v>
+      </c>
+      <c r="B73">
+        <v>2008</v>
+      </c>
+      <c r="C73" s="1">
+        <v>44.8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>16</v>
+      </c>
+      <c r="B74">
+        <v>2009</v>
+      </c>
+      <c r="C74" s="1">
+        <v>45.5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>16</v>
+      </c>
+      <c r="B75">
+        <v>2010</v>
+      </c>
+      <c r="C75" s="1">
+        <v>40.700000000000003</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>16</v>
+      </c>
+      <c r="B76">
+        <v>2011</v>
+      </c>
+      <c r="C76" s="1">
+        <v>39.200000000000003</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>16</v>
+      </c>
+      <c r="B77">
+        <v>2012</v>
+      </c>
+      <c r="C77" s="1">
+        <v>37.200000000000003</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>16</v>
+      </c>
+      <c r="B78">
+        <v>2013</v>
+      </c>
+      <c r="C78" s="1">
+        <v>36.200000000000003</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>16</v>
+      </c>
+      <c r="B79">
+        <v>2014</v>
+      </c>
+      <c r="C79" s="1">
+        <v>33.200000000000003</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>16</v>
+      </c>
+      <c r="B80">
+        <v>2015</v>
+      </c>
+      <c r="C80" s="1">
+        <v>36.299999999999997</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>16</v>
+      </c>
+      <c r="B81">
+        <v>2016</v>
+      </c>
+      <c r="C81" s="1">
+        <v>42.8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>16</v>
+      </c>
+      <c r="B82">
+        <v>2017</v>
+      </c>
+      <c r="C82" s="1">
+        <v>42.1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>16</v>
+      </c>
+      <c r="B83">
+        <v>2018</v>
+      </c>
+      <c r="C83" s="1">
+        <v>43.5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>16</v>
+      </c>
+      <c r="B84">
+        <v>2019</v>
+      </c>
+      <c r="C84" s="1">
+        <v>45.8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>16</v>
+      </c>
+      <c r="B85">
+        <v>2020</v>
+      </c>
+      <c r="C85" s="1">
+        <v>59.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100A477BC3A11763D4B933E427C314F943F" ma:contentTypeVersion="14" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="136923aa3092a39da81101c25b161d2a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="df60904f-cc62-4eb6-9ae8-ce819a94afe4" xmlns:ns4="8e18911f-4016-4447-adba-b06f40f69146" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="12a16d2543fcbb2ff715ec9b96b7614e" ns3:_="" ns4:_="">
     <xsd:import namespace="df60904f-cc62-4eb6-9ae8-ce819a94afe4"/>
@@ -64005,10 +64946,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0AF37C36-047D-40F1-8092-325E78C6F33B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C4FB001-FA25-4C41-A766-C7298860D6E9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="df60904f-cc62-4eb6-9ae8-ce819a94afe4"/>
+    <ds:schemaRef ds:uri="8e18911f-4016-4447-adba-b06f40f69146"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -64031,20 +64998,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C4FB001-FA25-4C41-A766-C7298860D6E9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0AF37C36-047D-40F1-8092-325E78C6F33B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="df60904f-cc62-4eb6-9ae8-ce819a94afe4"/>
-    <ds:schemaRef ds:uri="8e18911f-4016-4447-adba-b06f40f69146"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>